--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,39 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>eo_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>eo_conflict_field</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>100000061890</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,103 @@
           <t>eo_conflict_field</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>eo_conflict_field_current_master_data</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>eo_conflict_field_uploaded_data</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>eo_conflict_description</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>eo_conflict_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>eo_conflict_status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>100000061882</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4545</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Гаражный номер в файле из БЕ 4545 не соответствует гаражному номеру в мастер-файле 22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>07.06.2022 18:35:06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>100000061890</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>gar_no</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Гаражный номер в файле из БЕ 26 не соответствует гаражному номеру в мастер-файле 25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>07.06.2022 18:35:06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>active</t>
         </is>
       </c>
     </row>

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>resolved</t>
         </is>
       </c>
     </row>

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,111 +436,122 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>be_eo_data_row_no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>eo_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_field</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_field_current_master_data</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_field_uploaded_data</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_description</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_status</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>3323</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>100000061882</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>gar_no</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4545</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Гаражный номер в файле из БЕ 4545 не соответствует гаражному номеру в мастер-файле 22</t>
+          <t>454545</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>07.06.2022 18:35:06</t>
+          <t>В EO 100000061882 гаражный номер в файле из бизнес-единицы 454545 не соответствует гаражному номеру в мастер-файле 22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>08.06.2022 10:47:43</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>3325</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>100000061890</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>gar_no</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Гаражный номер в файле из БЕ 26 не соответствует гаражному номеру в мастер-файле 25</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>07.06.2022 18:35:06</t>
+          <t>В EO 100000061890 гаражный номер в файле из бизнес-единицы 26 не соответствует гаражному номеру в мастер-файле 25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>resolved</t>
+          <t>08.06.2022 10:47:43</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>active</t>
         </is>
       </c>
     </row>

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100000061882</t>
+          <t>100000061890</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,65 +491,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>454545</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>В EO 100000061882 гаражный номер в файле из бизнес-единицы 454545 не соответствует гаражному номеру в мастер-файле 22</t>
+          <t>В EO 100000061890 гаражный номер в файле из бизнес-единицы 26 не соответствует гаражному номеру в мастер-файле 25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08.06.2022 10:47:43</t>
+          <t>08.06.2022 12:48:36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3325</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100000061890</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>gar_no</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>В EO 100000061890 гаражный номер в файле из бизнес-единицы 26 не соответствует гаражному номеру в мастер-файле 25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>08.06.2022 10:47:43</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>active</t>
         </is>

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,21 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sender_email</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>email_date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>eo_conflict_status</t>
         </is>
       </c>
@@ -510,6 +525,21 @@
         </is>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>active</t>
         </is>

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,11 +492,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3325</v>
+        <v>3340</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100000061890</t>
+          <t>100000061898</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,27 +506,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>В EO 100000061890 гаражный номер в файле из бизнес-единицы 26 не соответствует гаражному номеру в мастер-файле 25</t>
+          <t>В EO 100000061898 гаражный номер в файле из бизнес-единицы 1 не соответствует гаражному номеру в мастер-файле 01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08.06.2022 12:48:36</t>
+          <t>08.06.2022 15:09:30</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,10 +536,1055 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2022-06-06 00:00:00</t>
+          <t>2022-06-07 00:00:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3347</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100000061901</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>019</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>В EO 100000061901 гаражный номер в файле из бизнес-единицы 19 не соответствует гаражному номеру в мастер-файле 019</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3348</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100000061902</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>В EO 100000061902 гаражный номер в файле из бизнес-единицы 20 не соответствует гаражному номеру в мастер-файле 020</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3349</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100000026783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>В EO 100000026783 гаражный номер в файле из бизнес-единицы 21 не соответствует гаражному номеру в мастер-файле 021</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3350</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100000026784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>В EO 100000026784 гаражный номер в файле из бизнес-единицы 22 не соответствует гаражному номеру в мастер-файле 022</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3351</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100000026785</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>В EO 100000026785 гаражный номер в файле из бизнес-единицы 23 не соответствует гаражному номеру в мастер-файле 023</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3352</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100000026814</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>В EO 100000026814 гаражный номер в файле из бизнес-единицы 24 не соответствует гаражному номеру в мастер-файле 024</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3388</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100000063334</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>В EO 100000063334 гаражный номер в файле из бизнес-единицы 1 не соответствует гаражному номеру в мастер-файле 01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3389</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100000062752</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>В EO 100000062752 гаражный номер в файле из бизнес-единицы 4 не соответствует гаражному номеру в мастер-файле 04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3390</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100000063337</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>В EO 100000063337 гаражный номер в файле из бизнес-единицы 7 не соответствует гаражному номеру в мастер-файле 07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3391</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100000026774</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>В EO 100000026774 гаражный номер в файле из бизнес-единицы 8 не соответствует гаражному номеру в мастер-файле 08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3397</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100000062743</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>В EO 100000062743 гаражный номер в файле из бизнес-единицы 2 не соответствует гаражному номеру в мастер-файле 02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3398</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>100000062745</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>В EO 100000062745 гаражный номер в файле из бизнес-единицы 9 не соответствует гаражному номеру в мастер-файле 09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3410</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100000063335</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>В EO 100000063335 гаражный номер в файле из бизнес-единицы 1 не соответствует гаражному номеру в мастер-файле 01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3413</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100000062739</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>В EO 100000062739 гаражный номер в файле из бизнес-единицы 2 не соответствует гаражному номеру в мастер-файле 02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3414</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100000063338</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>В EO 100000063338 гаражный номер в файле из бизнес-единицы 3 не соответствует гаражному номеру в мастер-файле 03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3416</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>100000062740</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>В EO 100000062740 гаражный номер в файле из бизнес-единицы 4 не соответствует гаражному номеру в мастер-файле 04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3417</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100000062736</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>В EO 100000062736 гаражный номер в файле из бизнес-единицы 5 не соответствует гаражному номеру в мастер-файле 05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3418</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>100000062737</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>В EO 100000062737 гаражный номер в файле из бизнес-единицы 6 не соответствует гаражному номеру в мастер-файле 06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3419</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>100000062726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>В EO 100000062726 гаражный номер в файле из бизнес-единицы 7 не соответствует гаражному номеру в мастер-файле 07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>08.06.2022 15:09:30</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2022-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>active</t>
         </is>

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -521,12 +521,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -851,12 +851,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1181,12 +1181,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08.06.2022 15:09:30</t>
+          <t>08.06.2022 16:49:29</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>01062022 Парк оборудования 2023 КБЕ.xlsx</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2022-06-07 00:00:00</t>
+          <t>2022-06-06 00:00:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,62 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3325</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100000061890</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EO 100000061890 в поле gar_no значение из файла 26 не соответствует значению в мастер-файле 25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>09.06.2022 11:24:33</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>resolved</t>
         </is>
       </c>
     </row>

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,6 +600,116 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3324</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100000061884</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EO 100000061884 в поле gar_no значение из файла 27 не соответствует значению в мастер-файле 24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:30:05</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3325</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100000061890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EO 100000061890 в поле gar_no значение из файла 26 не соответствует значению в мастер-файле 25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:30:05</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,60 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>be_eo_data_row_no</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>eo_code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_field</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_field_current_master_data</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_field_uploaded_data</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_description</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_date</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>filename</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>sender_email</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>email_date</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>eo_conflict_status</t>
         </is>
@@ -492,54 +497,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>3325</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>100000061890</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>gar_no</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>В EO 100000061890 гаражный номер в файле из бизнес-единицы 26 не соответствует гаражному номеру в мастер-файле 25</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>08.06.2022 18:46:13</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ZyatikovMN@polyus.com</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2022-06-06 00:00:00</t>
+          <t>ZyatikovMN@polyus.com</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>resolved</t>
         </is>
@@ -547,54 +555,57 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
         <v>3325</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>100000061890</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>gar_no</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>EO 100000061890 в поле gar_no значение из файла 26 не соответствует значению в мастер-файле 25</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>09.06.2022 11:24:33</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ZyatikovMN@polyus.com</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2022-06-06 00:00:00</t>
+          <t>ZyatikovMN@polyus.com</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>resolved</t>
         </is>
@@ -602,109 +613,1333 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
         <v>3324</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>100000061884</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>gar_no</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>EO 100000061884 в поле gar_no значение из файла 27 не соответствует значению в мастер-файле 24</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>09.06.2022 12:30:05</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ZyatikovMN@polyus.com</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2022-06-06 00:00:00</t>
+          <t>ZyatikovMN@polyus.com</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>resolved</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
         <v>3325</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>100000061890</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>gar_no</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>EO 100000061890 в поле gar_no значение из файла 26 не соответствует значению в мастер-файле 25</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>09.06.2022 12:30:05</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ZyatikovMN@polyus.com</t>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2022-06-06 00:00:00</t>
+          <t>ZyatikovMN@polyus.com</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3340</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>100000061898</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>EO 100000061898 в поле gar_no значение из файла 1 не соответствует значению в мастер-файле 01</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3347</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>100000061901</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>019</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>EO 100000061901 в поле gar_no значение из файла 19 не соответствует значению в мастер-файле 019</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3348</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>100000061902</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>EO 100000061902 в поле gar_no значение из файла 20 не соответствует значению в мастер-файле 020</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3349</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>100000026783</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>EO 100000026783 в поле gar_no значение из файла 21 не соответствует значению в мастер-файле 021</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3350</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100000026784</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>EO 100000026784 в поле gar_no значение из файла 22 не соответствует значению в мастер-файле 022</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3351</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100000026785</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>EO 100000026785 в поле gar_no значение из файла 23 не соответствует значению в мастер-файле 023</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3352</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>100000026814</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>EO 100000026814 в поле gar_no значение из файла 24 не соответствует значению в мастер-файле 024</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3388</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>100000063334</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>EO 100000063334 в поле gar_no значение из файла 1 не соответствует значению в мастер-файле 01</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3389</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>100000062752</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>EO 100000062752 в поле gar_no значение из файла 4 не соответствует значению в мастер-файле 04</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3390</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>100000063337</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>EO 100000063337 в поле gar_no значение из файла 7 не соответствует значению в мастер-файле 07</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3391</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>100000026774</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>EO 100000026774 в поле gar_no значение из файла 8 не соответствует значению в мастер-файле 08</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3397</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>100000062743</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>EO 100000062743 в поле gar_no значение из файла 2 не соответствует значению в мастер-файле 02</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3398</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>100000062745</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>EO 100000062745 в поле gar_no значение из файла 9 не соответствует значению в мастер-файле 09</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>100000063335</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>EO 100000063335 в поле gar_no значение из файла 1 не соответствует значению в мастер-файле 01</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>100000062739</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>EO 100000062739 в поле gar_no значение из файла 2 не соответствует значению в мастер-файле 02</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3414</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>100000063338</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>EO 100000063338 в поле gar_no значение из файла 3 не соответствует значению в мастер-файле 03</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3416</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>100000062740</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>EO 100000062740 в поле gar_no значение из файла 4 не соответствует значению в мастер-файле 04</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3417</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>100000062736</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>EO 100000062736 в поле gar_no значение из файла 5 не соответствует значению в мастер-файле 05</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3418</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>100000062737</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>EO 100000062737 в поле gar_no значение из файла 6 не соответствует значению в мастер-файле 06</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3419</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>100000062726</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>EO 100000062726 в поле gar_no значение из файла 7 не соответствует значению в мастер-файле 07</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>09.06.2022 12:49:06</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>resolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3325</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>100000061890</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>EO 100000061890 в поле gar_no значение из файла 26 не соответствует значению в мастер-файле 25</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>09.06.2022 13:09:54</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>active</t>
         </is>

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,36 +500,36 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3359</v>
+        <v>3340</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100000097363</t>
+          <t>100000061898</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>operation_start_date</t>
+          <t>gar_no</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2199-01-01</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>EO 100000097363 в поле operation_start_date значение из файла 2199-01-01 не соответствует значению в мастер-файле 2022-07-01</t>
+          <t>EO 100000061898 в поле gar_no значение из файла 1 не соответствует значению в мастер-файле 01</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>09.06.2022 16:06:22</t>
+          <t>09.06.2022 17:53:03</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>resolved</t>
+          <t>active</t>
         </is>
       </c>
     </row>
@@ -558,36 +558,36 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3360</v>
+        <v>3347</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100000097364</t>
+          <t>100000061901</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>operation_start_date</t>
+          <t>gar_no</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-09-01</t>
+          <t>019</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>EO 100000097364 в поле operation_start_date значение из файла 2022-10-01 не соответствует значению в мастер-файле 2022-09-01</t>
+          <t>EO 100000061901 в поле gar_no значение из файла 19 не соответствует значению в мастер-файле 019</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>09.06.2022 16:06:22</t>
+          <t>09.06.2022 17:53:03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -616,11 +616,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3359</v>
+        <v>3348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100000097363</t>
+          <t>100000061902</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -630,22 +630,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>020</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>EO 100000097363 в поле gar_no значение из файла 29.0 не соответствует значению в мастер-файле 29</t>
+          <t>EO 100000061902 в поле gar_no значение из файла 20 не соответствует значению в мастер-файле 020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09.06.2022 16:19:02</t>
+          <t>09.06.2022 17:53:03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -674,11 +674,11 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3360</v>
+        <v>3349</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>100000097364</t>
+          <t>100000026783</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -688,22 +688,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>021</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EO 100000097364 в поле gar_no значение из файла 0.0 не соответствует значению в мастер-файле 30</t>
+          <t>EO 100000026783 в поле gar_no значение из файла 21 не соответствует значению в мастер-файле 021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09.06.2022 16:19:02</t>
+          <t>09.06.2022 17:53:03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -722,6 +722,1108 @@
         </is>
       </c>
       <c r="L5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3350</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>100000026784</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>EO 100000026784 в поле gar_no значение из файла 22 не соответствует значению в мастер-файле 022</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3351</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>100000026785</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>EO 100000026785 в поле gar_no значение из файла 23 не соответствует значению в мастер-файле 023</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3352</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>100000026814</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>EO 100000026814 в поле gar_no значение из файла 24 не соответствует значению в мастер-файле 024</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3366</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>100000099753</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>operation_start_date</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>EO 100000099753 в поле operation_start_date значение из файла 2023-02-01 не соответствует значению в мастер-файле 2023-01-01</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3388</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100000063334</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>EO 100000063334 в поле gar_no значение из файла 1 не соответствует значению в мастер-файле 01</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3389</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100000062752</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>EO 100000062752 в поле gar_no значение из файла 4 не соответствует значению в мастер-файле 04</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3390</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>100000063337</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>EO 100000063337 в поле gar_no значение из файла 7 не соответствует значению в мастер-файле 07</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3391</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>100000026774</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>EO 100000026774 в поле gar_no значение из файла 8 не соответствует значению в мастер-файле 08</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3397</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>100000062743</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>EO 100000062743 в поле gar_no значение из файла 2 не соответствует значению в мастер-файле 02</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3398</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>100000062745</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>EO 100000062745 в поле gar_no значение из файла 9 не соответствует значению в мастер-файле 09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>100000063335</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>EO 100000063335 в поле gar_no значение из файла 1 не соответствует значению в мастер-файле 01</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>100000062739</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>EO 100000062739 в поле gar_no значение из файла 2 не соответствует значению в мастер-файле 02</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3414</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>100000063338</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>EO 100000063338 в поле gar_no значение из файла 3 не соответствует значению в мастер-файле 03</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3416</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>100000062740</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>EO 100000062740 в поле gar_no значение из файла 4 не соответствует значению в мастер-файле 04</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3417</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>100000062736</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>EO 100000062736 в поле gar_no значение из файла 5 не соответствует значению в мастер-файле 05</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3418</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>100000062737</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>EO 100000062737 в поле gar_no значение из файла 6 не соответствует значению в мастер-файле 06</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3419</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>100000062726</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>EO 100000062726 в поле gar_no значение из файла 7 не соответствует значению в мастер-файле 07</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3484</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>100000054864</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>operation_start_date</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2020-10-30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>EO 100000054864 в поле operation_start_date значение из файла 2020-10-30 не соответствует значению в мастер-файле 2020-09-14</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3492</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>100000055032</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>operation_start_date</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2021-02-24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2019-08-01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>EO 100000055032 в поле operation_start_date значение из файла 2019-08-01 не соответствует значению в мастер-файле 2021-02-24</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>09.06.2022 17:53:03</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>active</t>
         </is>

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>09.06.2022 17:53:03</t>
+          <t>09.06.2022 19:09:56</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>09.06.2022 19:09:56</t>
+          <t>10.06.2022 09:00:55</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">

--- a/downloads/conflicts.xlsx
+++ b/downloads/conflicts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,11 +500,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3325</v>
+        <v>3340</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100000061890</t>
+          <t>100000061898</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -514,22 +514,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>EO 100000061890 в поле gar_no значение из файла 26 не соответствует значению в мастер-файле 25</t>
+          <t>EO 100000061898 в поле gar_no значение из файла 1 не соответствует значению в мастер-файле 01</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14.06.2022 13:37:15</t>
+          <t>16.06.2022 10:43:26</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -558,36 +558,36 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3323</v>
+        <v>3347</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100000061882</t>
+          <t>100000061901</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>expected_operation_finish_datetime</t>
+          <t>gar_no</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2199-12-31</t>
+          <t>019</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>EO 100000061882 в поле expected_operation_finish_datetime значение из файла 2023-01-31 не соответствует значению в мастер-файле 2199-12-31</t>
+          <t>EO 100000061901 в поле gar_no значение из файла 19 не соответствует значению в мастер-файле 019</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14.06.2022 13:50:29</t>
+          <t>16.06.2022 10:43:26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -616,36 +616,36 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3324</v>
+        <v>3348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100000061884</t>
+          <t>100000061902</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>expected_operation_finish_datetime</t>
+          <t>gar_no</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2199-12-31</t>
+          <t>020</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>EO 100000061884 в поле expected_operation_finish_datetime значение из файла 2022-12-31 не соответствует значению в мастер-файле 2199-12-31</t>
+          <t>EO 100000061902 в поле gar_no значение из файла 20 не соответствует значению в мастер-файле 020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14.06.2022 13:50:29</t>
+          <t>16.06.2022 10:43:26</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -674,36 +674,36 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3325</v>
+        <v>3349</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>100000061890</t>
+          <t>100000026783</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>expected_operation_finish_datetime</t>
+          <t>gar_no</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2199-12-31</t>
+          <t>021</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EO 100000061890 в поле expected_operation_finish_datetime значение из файла 2023-01-31 не соответствует значению в мастер-файле 2199-12-31</t>
+          <t>EO 100000026783 в поле gar_no значение из файла 21 не соответствует значению в мастер-файле 021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14.06.2022 13:50:29</t>
+          <t>16.06.2022 10:43:26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -722,6 +722,1108 @@
         </is>
       </c>
       <c r="L5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3350</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>100000026784</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>EO 100000026784 в поле gar_no значение из файла 22 не соответствует значению в мастер-файле 022</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3351</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>100000026785</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>EO 100000026785 в поле gar_no значение из файла 23 не соответствует значению в мастер-файле 023</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3352</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>100000026814</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>EO 100000026814 в поле gar_no значение из файла 24 не соответствует значению в мастер-файле 024</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3366</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>100000099753</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>operation_start_date</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>EO 100000099753 в поле operation_start_date значение из файла 2023-02-01 не соответствует значению в мастер-файле 2023-01-01</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3388</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100000063334</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>EO 100000063334 в поле gar_no значение из файла 1 не соответствует значению в мастер-файле 01</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3389</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100000062752</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>EO 100000062752 в поле gar_no значение из файла 4 не соответствует значению в мастер-файле 04</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3390</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>100000063337</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>EO 100000063337 в поле gar_no значение из файла 7 не соответствует значению в мастер-файле 07</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3391</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>100000026774</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>EO 100000026774 в поле gar_no значение из файла 8 не соответствует значению в мастер-файле 08</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3397</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>100000062743</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>EO 100000062743 в поле gar_no значение из файла 2 не соответствует значению в мастер-файле 02</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3398</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>100000062745</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>EO 100000062745 в поле gar_no значение из файла 9 не соответствует значению в мастер-файле 09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3410</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>100000063335</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>EO 100000063335 в поле gar_no значение из файла 1 не соответствует значению в мастер-файле 01</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>100000062739</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>EO 100000062739 в поле gar_no значение из файла 2 не соответствует значению в мастер-файле 02</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3414</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>100000063338</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>EO 100000063338 в поле gar_no значение из файла 3 не соответствует значению в мастер-файле 03</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3416</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>100000062740</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>EO 100000062740 в поле gar_no значение из файла 4 не соответствует значению в мастер-файле 04</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3417</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>100000062736</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>EO 100000062736 в поле gar_no значение из файла 5 не соответствует значению в мастер-файле 05</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3418</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>100000062737</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>EO 100000062737 в поле gar_no значение из файла 6 не соответствует значению в мастер-файле 06</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3419</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>100000062726</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>gar_no</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>EO 100000062726 в поле gar_no значение из файла 7 не соответствует значению в мастер-файле 07</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3484</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>100000054864</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>operation_start_date</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2020-10-30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>EO 100000054864 в поле operation_start_date значение из файла 2020-10-30 не соответствует значению в мастер-файле 2020-09-14</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3492</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>100000055032</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>operation_start_date</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2021-02-24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2019-08-01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>EO 100000055032 в поле operation_start_date значение из файла 2019-08-01 не соответствует значению в мастер-файле 2021-02-24</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>16.06.2022 10:43:26</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>01062022 Парк оборудования 2023 КБЕ (002).xlsx</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ZyatikovMN@polyus.com</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2022-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>active</t>
         </is>
